--- a/excel_files/Comparison - NC_015660 & NC_014650.xlsx
+++ b/excel_files/Comparison - NC_015660 & NC_014650.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="43">
   <si>
     <t>NC_015660</t>
   </si>
@@ -74,100 +74,76 @@
     <t>-999</t>
   </si>
   <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>23.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>0*</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>15.0</t>
+  </si>
+  <si>
+    <t>11.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>16.5</t>
+  </si>
+  <si>
+    <t>10.5</t>
+  </si>
+  <si>
+    <t>22.0</t>
+  </si>
+  <si>
+    <t>19.5</t>
+  </si>
+  <si>
+    <t>15.5</t>
+  </si>
+  <si>
+    <t>20.5</t>
+  </si>
+  <si>
     <t>7.0</t>
   </si>
   <si>
-    <t>11.0</t>
-  </si>
-  <si>
-    <t>12.0</t>
-  </si>
-  <si>
-    <t>18.0</t>
-  </si>
-  <si>
-    <t>10.0</t>
-  </si>
-  <si>
-    <t>6.5</t>
-  </si>
-  <si>
-    <t>26.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>15.0</t>
-  </si>
-  <si>
-    <t>0*</t>
-  </si>
-  <si>
-    <t>16.0</t>
-  </si>
-  <si>
-    <t>13.0</t>
-  </si>
-  <si>
-    <t>17.0</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>23.0</t>
-  </si>
-  <si>
-    <t>21.5</t>
-  </si>
-  <si>
-    <t>15.5</t>
-  </si>
-  <si>
-    <t>14.0</t>
-  </si>
-  <si>
-    <t>19.5</t>
-  </si>
-  <si>
-    <t>12.5</t>
-  </si>
-  <si>
     <t>14.5</t>
   </si>
   <si>
-    <t>24.0</t>
-  </si>
-  <si>
-    <t>18.5</t>
-  </si>
-  <si>
-    <t>25.0</t>
-  </si>
-  <si>
-    <t>22.0</t>
-  </si>
-  <si>
-    <t>24.5</t>
-  </si>
-  <si>
-    <t>8.0</t>
-  </si>
-  <si>
-    <t>21.0</t>
-  </si>
-  <si>
     <t>23.5</t>
-  </si>
-  <si>
-    <t>6.0</t>
-  </si>
-  <si>
-    <t>17.5</t>
-  </si>
-  <si>
-    <t>27.5</t>
   </si>
 </sst>
 </file>
@@ -746,40 +722,40 @@
         <v>17</v>
       </c>
       <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>22</v>
+      </c>
+      <c r="L6" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" t="s">
         <v>29</v>
       </c>
-      <c r="H6" t="s">
+      <c r="N6" t="s">
         <v>30</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="O6" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
         <v>31</v>
-      </c>
-      <c r="L6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N6" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P6" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>32</v>
-      </c>
-      <c r="R6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -796,13 +772,13 @@
         <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I7" t="s">
         <v>18</v>
@@ -811,28 +787,28 @@
         <v>18</v>
       </c>
       <c r="K7" t="s">
+        <v>27</v>
+      </c>
+      <c r="L7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" t="s">
+        <v>33</v>
+      </c>
+      <c r="O7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M7" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" t="s">
-        <v>36</v>
-      </c>
-      <c r="O7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P7" t="s">
-        <v>37</v>
-      </c>
       <c r="Q7" t="s">
+        <v>32</v>
+      </c>
+      <c r="R7" t="s">
         <v>20</v>
-      </c>
-      <c r="R7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -849,10 +825,10 @@
         <v>21</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>17</v>
@@ -864,28 +840,28 @@
         <v>18</v>
       </c>
       <c r="K8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="L8" t="s">
         <v>18</v>
       </c>
       <c r="M8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" t="s">
         <v>36</v>
       </c>
-      <c r="N8" t="s">
-        <v>39</v>
-      </c>
-      <c r="O8" t="s">
-        <v>18</v>
-      </c>
-      <c r="P8" t="s">
-        <v>40</v>
-      </c>
       <c r="Q8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -1008,13 +984,13 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I11" t="s">
         <v>18</v>
@@ -1029,22 +1005,22 @@
         <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="O11" t="s">
         <v>18</v>
       </c>
       <c r="P11" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="Q11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="R11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -1114,13 +1090,13 @@
         <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="I13" t="s">
         <v>18</v>
@@ -1129,7 +1105,7 @@
         <v>18</v>
       </c>
       <c r="K13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L13" t="s">
         <v>18</v>
@@ -1138,19 +1114,19 @@
         <v>17</v>
       </c>
       <c r="N13" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="O13" t="s">
         <v>18</v>
       </c>
       <c r="P13" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="Q13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="R13" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -1167,13 +1143,13 @@
         <v>24</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H14" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="I14" t="s">
         <v>18</v>
@@ -1182,13 +1158,13 @@
         <v>18</v>
       </c>
       <c r="K14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L14" t="s">
         <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="N14" s="1" t="s">
         <v>17</v>
@@ -1197,13 +1173,13 @@
         <v>18</v>
       </c>
       <c r="P14" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="Q14" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="R14" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1273,31 +1249,31 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="G16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" t="s">
+        <v>18</v>
+      </c>
+      <c r="J16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
         <v>37</v>
       </c>
-      <c r="H16" t="s">
-        <v>40</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" t="s">
         <v>42</v>
-      </c>
-      <c r="L16" t="s">
-        <v>18</v>
-      </c>
-      <c r="M16" t="s">
-        <v>44</v>
-      </c>
-      <c r="N16" t="s">
-        <v>47</v>
       </c>
       <c r="O16" t="s">
         <v>18</v>
@@ -1306,10 +1282,10 @@
         <v>17</v>
       </c>
       <c r="Q16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="R16" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="2:18">
@@ -1326,14 +1302,14 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" t="s">
         <v>32</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>20</v>
       </c>
-      <c r="H17" t="s">
-        <v>23</v>
-      </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
@@ -1341,28 +1317,28 @@
         <v>18</v>
       </c>
       <c r="K17" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="L17" t="s">
         <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="N17" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="O17" t="s">
         <v>18</v>
       </c>
       <c r="P17" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="Q17" s="1" t="s">
         <v>17</v>
       </c>
       <c r="R17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="2:18">
@@ -1379,40 +1355,40 @@
         <v>27</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" t="s">
         <v>37</v>
       </c>
-      <c r="I18" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>43</v>
-      </c>
-      <c r="L18" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N18" t="s">
-        <v>49</v>
-      </c>
-      <c r="O18" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" t="s">
-        <v>50</v>
-      </c>
       <c r="Q18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="R18" s="1" t="s">
         <v>17</v>
